--- a/nes-lter-minimal-info.xlsx
+++ b/nes-lter-minimal-info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbeaulieu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-chl-mvco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBD01EE-13D6-460E-B49F-D563FE56C013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701B188C-5491-4C96-AD6E-E2291BB32FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31470" yWindow="6900" windowWidth="23475" windowHeight="10320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
   <si>
     <t>attributeName</t>
   </si>
@@ -64,21 +64,6 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>cruise</t>
-  </si>
-  <si>
-    <t>cast</t>
-  </si>
-  <si>
-    <t>niskin</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -88,24 +73,9 @@
     <t>depth</t>
   </si>
   <si>
-    <t>sample_id</t>
-  </si>
-  <si>
     <t>replicate</t>
   </si>
   <si>
-    <t>nitrate_nitrite</t>
-  </si>
-  <si>
-    <t>CTD rosette cast number chronological per cruise</t>
-  </si>
-  <si>
-    <t>Rosette bottle position number</t>
-  </si>
-  <si>
-    <t>Identifier for research cruise generally including abbreviation for research vessel and voyage number</t>
-  </si>
-  <si>
     <t>degree</t>
   </si>
   <si>
@@ -118,18 +88,6 @@
     <t>micromolePerLiter</t>
   </si>
   <si>
-    <t>Identifier for subsample drawn from rosette bottle</t>
-  </si>
-  <si>
-    <t>Lowercase letter indicating replicate subsample drawn from the same rosette bottle</t>
-  </si>
-  <si>
-    <t>Ship's latitude when rosette bottle closed</t>
-  </si>
-  <si>
-    <t>Ship's longitude when rosette bottle closed</t>
-  </si>
-  <si>
     <t>keyword</t>
   </si>
   <si>
@@ -238,9 +196,6 @@
     <t>metadataProvider</t>
   </si>
   <si>
-    <t>Date and time in UTC when rosette bottle closed</t>
-  </si>
-  <si>
     <t>project_id</t>
   </si>
   <si>
@@ -250,18 +205,6 @@
     <t>definition</t>
   </si>
   <si>
-    <t>LTER</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>Long-Term Ecological Research</t>
-  </si>
-  <si>
-    <t>MIT-WHOI Joint Program</t>
-  </si>
-  <si>
     <t>categorical</t>
   </si>
   <si>
@@ -271,27 +214,9 @@
     <t>YYYY-MM-DD hh:mm:ss</t>
   </si>
   <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Futrelle</t>
-  </si>
-  <si>
-    <t>jfutrelle@whoi.edu</t>
-  </si>
-  <si>
-    <t>0000-0003-4537-5853</t>
-  </si>
-  <si>
-    <t>softwareDeveloper</t>
-  </si>
-  <si>
     <t>inorganic matter</t>
   </si>
   <si>
-    <t>Nitrate+nitrite concentration in the water column http://vocab.nerc.ac.uk/collection/P02/current/NTRA/</t>
-  </si>
-  <si>
     <t>Depth of sample below sea surface http://vocab.nerc.ac.uk/collection/P09/current/DEPH/</t>
   </si>
   <si>
@@ -314,13 +239,133 @@
   </si>
   <si>
     <t>NOAA Large Marine Ecosystems</t>
+  </si>
+  <si>
+    <t>E. Taylor</t>
+  </si>
+  <si>
+    <t>Crockford</t>
+  </si>
+  <si>
+    <t>ecrockford@whoi.edu</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Peacock</t>
+  </si>
+  <si>
+    <t>epeacock@whoi.edu</t>
+  </si>
+  <si>
+    <t>event_number</t>
+  </si>
+  <si>
+    <t>Identification number for each MVCO discrete sampling event</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>event_number_niskin</t>
+  </si>
+  <si>
+    <t>Identification number for each Niskin or bucket collection during MVCO discrete sampling event</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>Name of vessel from which samples were collected</t>
+  </si>
+  <si>
+    <t>cruise_ID</t>
+  </si>
+  <si>
+    <t>Cruise identifer for the R/V Tioga</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>Date and time in UTC when cast started or bucket filled</t>
+  </si>
+  <si>
+    <t>Ship's latitude when cast started or latitude of MVCO</t>
+  </si>
+  <si>
+    <t>Ship's longitude when cast started or longitude of MVCO</t>
+  </si>
+  <si>
+    <t>Lowercase letter indicating replicate subsample drawn from the same rosette bottle or bucket</t>
+  </si>
+  <si>
+    <t>IODE Quality Flag primary level</t>
+  </si>
+  <si>
+    <t>iode_quality_flag</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>quality not evaluated, not available or unknown</t>
+  </si>
+  <si>
+    <t>questionable/suspect</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>missing data</t>
+  </si>
+  <si>
+    <t>chl</t>
+  </si>
+  <si>
+    <t>Concentration of chlorophyll a per unit volume of the water body http://vocab.nerc.ac.uk/collection/P01/current/CPHLZZXX/ corresponding to BCO-DMO chl_a SeaBASS Chl and CF mass_concentration_of_ chlorophyll_a_in_sea_water</t>
+  </si>
+  <si>
+    <t>microgramsPerLiter</t>
+  </si>
+  <si>
+    <t>phaeo</t>
+  </si>
+  <si>
+    <t>Concentration of phaeopigments per unit volume of the water body</t>
+  </si>
+  <si>
+    <t>filter_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size fraction with filter and when applicable prefilter in micrometers </t>
+  </si>
+  <si>
+    <t>&gt;0</t>
+  </si>
+  <si>
+    <t>Filtered on 0.7 micron filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;0&amp;&lt;10 </t>
+  </si>
+  <si>
+    <t>Filtered on 0.7 micron filter with 10 micron prefilter</t>
+  </si>
+  <si>
+    <t>Filtered on 0.7 micron filter with 80 micron prefilter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;0&amp;&lt;80 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +395,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -372,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -383,6 +435,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -664,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,18 +756,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>76</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -719,19 +775,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -739,59 +792,41 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -799,115 +834,157 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
         <v>78</v>
       </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -919,10 +996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,32 +1009,98 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
+        <v>91</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -967,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,185 +1123,207 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="s">
-        <v>63</v>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{CA295046-575D-408C-95E4-5B2B4E4C4C5B}"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{CA295046-575D-408C-95E4-5B2B4E4C4C5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1169,7 +1334,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,34 +1344,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1229,36 +1394,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>1E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
